--- a/biology/Botanique/Éclisse/Éclisse.xlsx
+++ b/biology/Botanique/Éclisse/Éclisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89clisse</t>
+          <t>Éclisse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une éclisse est une pièce simple d'assemblage, destinée à immobiliser plusieurs parties mobiles d'un ensemble mécanique (rails, membres, membrures, etc.) ou à rigidifier et supporter un corps mou ou flexible (fromage, membre, etc.) C'est également un élément des guitares, violons, violoncelles, contrebasses.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89clisse</t>
+          <t>Éclisse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot « éclisse » provient du vieux français « esclicer » signifiant « se fendre en éclats ».
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89clisse</t>
+          <t>Éclisse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Éclisse végétale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une éclisse est le nom donné à un morceau de bois ou d'osier, en forme de coin, de planchette ou de ruban, utilisé dans certains assemblages :
 pour la construction : dans les édifices à pan de bois, les éclisses (aussi nommées selon les régions : palançon, palisson, barreau...) sont des pièces de bois fendu, qui s'insèrent entre les poteaux de structure. Elles servent de barreaudage pour permettre le support du torchis qui assure le remplissage du mur ou du plancher. Le mélange de torchis sur l'éclisse donne une quenouille ou fusée. Dans l'assemblage de l'édifice bois, l'éclisse participe à rigidifier et trianguler la structure.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89clisse</t>
+          <t>Éclisse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Éclisse métallique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'industrie ferroviaire, avec un sens analogue à ceux cités ci-avant, une éclisse est une pièce métallique servant, par paire et à l'aide de boulons ou de « cés » de serrage (pièce métallique rappelant la forme de la lettre « C »), à raccorder entre eux deux rails consécutifs, l'assemblage complet formant alors un joint.
 </t>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89clisse</t>
+          <t>Éclisse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,9 +630,11 @@
           <t>Éclisse médicale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En médecine, une éclisse est une attelle destinée à l'immobilisation d'un membre fracturé. Dans le contexte du prompt secours, on parle d'éclisser un membre à l'aide d'une plaque rigide de carton, de bois ou de métal et d'un bandage de contention[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En médecine, une éclisse est une attelle destinée à l'immobilisation d'un membre fracturé. Dans le contexte du prompt secours, on parle d'éclisser un membre à l'aide d'une plaque rigide de carton, de bois ou de métal et d'un bandage de contention.
 </t>
         </is>
       </c>
